--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7242"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
     <definedName name="PercentCompleteBeyond">('Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$5&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$5='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
-    <definedName name="period_selected">'Project Planner'!$H$2</definedName>
+    <definedName name="period_selected">'Project Planner'!#REF!</definedName>
     <definedName name="PeriodInActual">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -117,9 +117,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
-  </si>
-  <si>
     <t>PLAN START</t>
   </si>
   <si>
@@ -193,13 +190,25 @@
   </si>
   <si>
     <t>Preparation of Powerpoint and Report</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
+  </si>
+  <si>
+    <t>Activity Workflow Diagrams</t>
+  </si>
+  <si>
+    <t>Legend for chart is as follows:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction and Transition phases have not been planned in depth yet. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -357,6 +366,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -431,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -507,6 +528,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -565,7 +595,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,15 +605,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="3">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -593,8 +617,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="7" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,74 +680,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="13" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,9 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -728,29 +746,371 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1132,238 +1492,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DC18"/>
+  <dimension ref="A1:DC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="AL7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CM4" sqref="CM4"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7890625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.68359375" customWidth="1"/>
-    <col min="2" max="2" width="26.68359375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.41796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.41796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.68359375" style="4" customWidth="1"/>
-    <col min="8" max="27" width="4.5234375" style="1" customWidth="1"/>
-    <col min="28" max="106" width="4.5234375" customWidth="1"/>
-    <col min="107" max="107" width="6.3125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" customWidth="1"/>
+    <col min="8" max="27" width="4.5546875" style="1" customWidth="1"/>
+    <col min="28" max="47" width="4.5546875" customWidth="1"/>
+    <col min="48" max="49" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="57" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:107" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="2">
-      <c r="B1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+    <row r="1" spans="2:107" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:107" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="5" t="s">
+    <row r="2" spans="2:107" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="21"/>
+      <c r="BP2" s="21"/>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="21"/>
+      <c r="BS2" s="21"/>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="21"/>
+      <c r="BV2" s="21"/>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="21"/>
+      <c r="BY2" s="21"/>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="21"/>
+      <c r="CB2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="21"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="21"/>
+      <c r="CH2" s="21"/>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="21"/>
+      <c r="CK2" s="21"/>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="21"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="21"/>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="21"/>
+      <c r="CT2" s="21"/>
+      <c r="CU2" s="21"/>
+      <c r="CV2" s="21"/>
+      <c r="CW2" s="21"/>
+      <c r="CX2" s="21"/>
+      <c r="CY2" s="21"/>
+      <c r="CZ2" s="21"/>
+      <c r="DA2" s="21"/>
+      <c r="DB2" s="21"/>
+      <c r="DC2" s="21"/>
+    </row>
+    <row r="3" spans="2:107" s="4" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="20"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+    </row>
+    <row r="4" spans="2:107" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-    </row>
-    <row r="3" spans="2:107" s="6" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="17"/>
-      <c r="BF3" s="17"/>
-      <c r="BG3" s="17"/>
-      <c r="BH3" s="17"/>
-      <c r="BI3" s="17"/>
-      <c r="BJ3" s="17"/>
-      <c r="BK3" s="17"/>
-      <c r="BL3" s="17"/>
-      <c r="BM3" s="17"/>
-      <c r="BN3" s="17"/>
-      <c r="BO3" s="17"/>
-      <c r="BP3" s="17"/>
-      <c r="BQ3" s="17"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="17"/>
-      <c r="BU3" s="17"/>
-      <c r="BV3" s="17"/>
-      <c r="BW3" s="17"/>
-      <c r="BX3" s="17"/>
-      <c r="BY3" s="17"/>
-      <c r="BZ3" s="17"/>
-      <c r="CA3" s="17"/>
-      <c r="CB3" s="17"/>
-      <c r="CC3" s="17"/>
-      <c r="CD3" s="17"/>
-      <c r="CE3" s="17"/>
-      <c r="CF3" s="17"/>
-      <c r="CG3" s="17"/>
-      <c r="CH3" s="17"/>
-      <c r="CI3" s="17"/>
-      <c r="CJ3" s="17"/>
-      <c r="CK3" s="17"/>
-      <c r="CL3" s="17"/>
-      <c r="CM3" s="17"/>
-      <c r="CN3" s="17"/>
-      <c r="CO3" s="17"/>
-      <c r="CP3" s="17"/>
-      <c r="CQ3" s="17"/>
-      <c r="CR3" s="17"/>
-      <c r="CS3" s="17"/>
-      <c r="CT3" s="17"/>
-      <c r="CU3" s="17"/>
-      <c r="CV3" s="17"/>
-      <c r="CW3" s="17"/>
-      <c r="CX3" s="17"/>
-      <c r="CY3" s="17"/>
-      <c r="CZ3" s="17"/>
-      <c r="DA3" s="17"/>
-      <c r="DB3" s="17"/>
-      <c r="DC3" s="17"/>
-    </row>
-    <row r="4" spans="2:107" s="6" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
+      <c r="H4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="U4" s="33"/>
       <c r="V4" s="33"/>
       <c r="W4" s="33"/>
@@ -1371,669 +1739,675 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
       <c r="AA4" s="33"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="35" t="s">
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="30"/>
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="30"/>
+      <c r="BA4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="31"/>
+      <c r="BC4" s="31"/>
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="31"/>
+    </row>
+    <row r="5" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>3</v>
+      </c>
+      <c r="K5" s="16">
+        <v>4</v>
+      </c>
+      <c r="L5" s="16">
+        <v>5</v>
+      </c>
+      <c r="M5" s="16">
+        <v>6</v>
+      </c>
+      <c r="N5" s="16">
+        <v>7</v>
+      </c>
+      <c r="O5" s="16">
+        <v>8</v>
+      </c>
+      <c r="P5" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>10</v>
+      </c>
+      <c r="R5" s="16">
+        <v>11</v>
+      </c>
+      <c r="S5" s="16">
+        <v>12</v>
+      </c>
+      <c r="T5" s="16">
+        <v>13</v>
+      </c>
+      <c r="U5" s="16">
+        <v>14</v>
+      </c>
+      <c r="V5" s="16">
         <v>15</v>
       </c>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="27" t="s">
+      <c r="W5" s="16">
+        <v>16</v>
+      </c>
+      <c r="X5" s="16">
         <v>17</v>
       </c>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="15"/>
-      <c r="BQ4" s="15"/>
-      <c r="BR4" s="15"/>
-      <c r="BS4" s="15"/>
-      <c r="BT4" s="15"/>
-      <c r="BU4" s="15"/>
-      <c r="BV4" s="15"/>
-      <c r="BW4" s="15"/>
-      <c r="BX4" s="15"/>
-      <c r="BY4" s="15"/>
-      <c r="BZ4" s="15"/>
-      <c r="CA4" s="15"/>
-      <c r="CB4" s="15"/>
-      <c r="CC4" s="15"/>
-      <c r="CD4" s="15"/>
-      <c r="CE4" s="15"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36"/>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="37" t="s">
+      <c r="Y5" s="16">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="16">
         <v>19</v>
       </c>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36"/>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
+      <c r="AA5" s="16">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="16">
+        <v>21</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>23</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>31</v>
+      </c>
+      <c r="AM5" s="16">
+        <v>32</v>
+      </c>
+      <c r="AN5" s="19">
+        <v>33</v>
+      </c>
+      <c r="AO5" s="19">
+        <v>34</v>
+      </c>
+      <c r="AP5" s="19">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="19">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="19">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="19">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="19">
+        <v>39</v>
+      </c>
+      <c r="AU5" s="19">
+        <v>40</v>
+      </c>
+      <c r="AV5" s="19">
+        <v>41</v>
+      </c>
+      <c r="AW5" s="19">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="19">
+        <v>43</v>
+      </c>
+      <c r="AY5" s="19">
+        <v>44</v>
+      </c>
+      <c r="AZ5" s="19">
+        <v>45</v>
+      </c>
+      <c r="BA5" s="19">
+        <v>46</v>
+      </c>
+      <c r="BB5" s="19">
+        <v>47</v>
+      </c>
+      <c r="BC5" s="19">
+        <v>48</v>
+      </c>
+      <c r="BD5" s="19">
+        <v>49</v>
+      </c>
+      <c r="BE5" s="19">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="41"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="26">
+    <row r="6" spans="2:107" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="I5" s="26">
+      <c r="D6" s="17">
         <v>2</v>
       </c>
-      <c r="J5" s="26">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="K5" s="26">
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+    </row>
+    <row r="7" spans="2:107" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+    </row>
+    <row r="8" spans="2:107" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+    </row>
+    <row r="9" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>6</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+    </row>
+    <row r="10" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
         <v>4</v>
       </c>
-      <c r="L5" s="26">
+      <c r="E10" s="17">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17">
         <v>5</v>
       </c>
-      <c r="M5" s="26">
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+    </row>
+    <row r="11" spans="2:107" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+    </row>
+    <row r="12" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4</v>
+      </c>
+      <c r="F12" s="17">
         <v>6</v>
       </c>
-      <c r="N5" s="26">
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="21"/>
+    </row>
+    <row r="13" spans="2:107" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5</v>
+      </c>
+      <c r="D13" s="17">
         <v>7</v>
       </c>
-      <c r="O5" s="26">
-        <v>8</v>
-      </c>
-      <c r="P5" s="26">
+      <c r="E13" s="17">
+        <v>4</v>
+      </c>
+      <c r="F13" s="17">
+        <v>6</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+    </row>
+    <row r="14" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17">
         <v>9</v>
       </c>
-      <c r="Q5" s="26">
-        <v>10</v>
-      </c>
-      <c r="R5" s="26">
-        <v>11</v>
-      </c>
-      <c r="S5" s="26">
+      <c r="F14" s="17">
+        <v>17</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+    </row>
+    <row r="15" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17">
         <v>12</v>
       </c>
-      <c r="T5" s="26">
-        <v>13</v>
-      </c>
-      <c r="U5" s="26">
+      <c r="D15" s="17">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>12</v>
+      </c>
+      <c r="F15" s="17">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21"/>
+    </row>
+    <row r="16" spans="2:107" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="17">
+        <v>30</v>
+      </c>
+      <c r="D16" s="17">
+        <v>15</v>
+      </c>
+      <c r="E16" s="17">
+        <v>26</v>
+      </c>
+      <c r="F16" s="17">
         <v>14</v>
       </c>
-      <c r="V5" s="26">
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+    </row>
+    <row r="17" spans="1:57" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="17">
+        <v>20</v>
+      </c>
+      <c r="D17" s="17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="17">
+        <v>17</v>
+      </c>
+      <c r="F17" s="17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+    </row>
+    <row r="18" spans="1:57" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="17">
         <v>15</v>
       </c>
-      <c r="W5" s="26">
-        <v>16</v>
-      </c>
-      <c r="X5" s="26">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="26">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="26">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="26">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="26">
-        <v>21</v>
-      </c>
-      <c r="AC5" s="26">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="26">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="26">
-        <v>24</v>
-      </c>
-      <c r="AF5" s="26">
-        <v>25</v>
-      </c>
-      <c r="AG5" s="26">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="26">
-        <v>27</v>
-      </c>
-      <c r="AI5" s="26">
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>15</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="21"/>
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21"/>
+      <c r="BE18" s="21"/>
+    </row>
+    <row r="19" spans="1:57" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="26">
-        <v>29</v>
-      </c>
-      <c r="AK5" s="26">
+      <c r="C19" s="17">
         <v>30</v>
       </c>
-      <c r="AL5" s="26">
-        <v>31</v>
-      </c>
-      <c r="AM5" s="26">
+      <c r="D19" s="17">
+        <v>5</v>
+      </c>
+      <c r="E19" s="17">
+        <v>30</v>
+      </c>
+      <c r="F19" s="17">
+        <v>4</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+    </row>
+    <row r="20" spans="1:57" s="21" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AN5" s="26">
-        <v>33</v>
-      </c>
-      <c r="AO5" s="26">
-        <v>34</v>
-      </c>
-      <c r="AP5" s="26">
-        <v>35</v>
-      </c>
-      <c r="AQ5" s="26">
-        <v>36</v>
-      </c>
-      <c r="AR5" s="26">
-        <v>37</v>
-      </c>
-      <c r="AS5" s="26">
-        <v>38</v>
-      </c>
-      <c r="AT5" s="26">
-        <v>39</v>
-      </c>
-      <c r="AU5" s="26">
-        <v>40</v>
-      </c>
-      <c r="AV5" s="26">
-        <v>41</v>
-      </c>
-      <c r="AW5" s="26">
-        <v>42</v>
-      </c>
-      <c r="AX5" s="26">
-        <v>43</v>
-      </c>
-      <c r="AY5" s="26">
-        <v>44</v>
-      </c>
-      <c r="AZ5" s="26">
-        <v>45</v>
-      </c>
-      <c r="BA5" s="26">
-        <v>46</v>
-      </c>
-      <c r="BB5" s="26">
-        <v>47</v>
-      </c>
-      <c r="BC5" s="26">
-        <v>48</v>
-      </c>
-      <c r="BD5" s="26">
-        <v>49</v>
-      </c>
-      <c r="BE5" s="26">
-        <v>50</v>
-      </c>
-      <c r="BF5" s="26">
-        <v>51</v>
-      </c>
-      <c r="BG5" s="26">
-        <v>52</v>
-      </c>
-      <c r="BH5" s="26">
-        <v>53</v>
-      </c>
-      <c r="BI5" s="26">
-        <v>54</v>
-      </c>
-      <c r="BJ5" s="26">
-        <v>55</v>
-      </c>
-      <c r="BK5" s="26">
-        <v>56</v>
-      </c>
-      <c r="BL5" s="26">
-        <v>57</v>
-      </c>
-      <c r="BM5" s="26">
-        <v>58</v>
-      </c>
-      <c r="BN5" s="26">
-        <v>59</v>
-      </c>
-      <c r="BO5" s="26">
-        <v>60</v>
-      </c>
-      <c r="BP5" s="26">
-        <v>61</v>
-      </c>
-      <c r="BQ5" s="26">
-        <v>62</v>
-      </c>
-      <c r="BR5" s="26">
-        <v>63</v>
-      </c>
-      <c r="BS5" s="26">
-        <v>64</v>
-      </c>
-      <c r="BT5" s="26">
-        <v>65</v>
-      </c>
-      <c r="BU5" s="26">
-        <v>66</v>
-      </c>
-      <c r="BV5" s="26">
-        <v>67</v>
-      </c>
-      <c r="BW5" s="26">
-        <v>68</v>
-      </c>
-      <c r="BX5" s="26">
-        <v>69</v>
-      </c>
-      <c r="BY5" s="26">
-        <v>70</v>
-      </c>
-      <c r="BZ5" s="26">
-        <v>71</v>
-      </c>
-      <c r="CA5" s="26">
-        <v>72</v>
-      </c>
-      <c r="CB5" s="26">
-        <v>73</v>
-      </c>
-      <c r="CC5" s="26">
-        <v>74</v>
-      </c>
-      <c r="CD5" s="26">
-        <v>75</v>
-      </c>
-      <c r="CE5" s="26">
-        <v>76</v>
-      </c>
-      <c r="CF5" s="26">
-        <v>77</v>
-      </c>
-      <c r="CG5" s="26">
-        <v>78</v>
-      </c>
-      <c r="CH5" s="26">
-        <v>79</v>
-      </c>
-      <c r="CI5" s="26">
-        <v>80</v>
-      </c>
-      <c r="CJ5" s="26">
-        <v>81</v>
-      </c>
-      <c r="CK5" s="26">
-        <v>82</v>
-      </c>
-      <c r="CL5" s="26">
-        <v>83</v>
-      </c>
-      <c r="CM5" s="26">
-        <v>84</v>
-      </c>
-      <c r="CN5" s="26">
-        <v>85</v>
-      </c>
-      <c r="CO5" s="26">
-        <v>86</v>
-      </c>
-      <c r="CP5" s="26">
-        <v>87</v>
-      </c>
-      <c r="CQ5" s="26">
-        <v>88</v>
-      </c>
-      <c r="CR5" s="26">
-        <v>89</v>
-      </c>
-      <c r="CS5" s="26">
-        <v>90</v>
-      </c>
-      <c r="CT5" s="26">
-        <v>91</v>
-      </c>
-      <c r="CU5" s="26">
-        <v>92</v>
-      </c>
-      <c r="CV5" s="26">
-        <v>93</v>
-      </c>
-      <c r="CW5" s="26">
-        <v>94</v>
-      </c>
-      <c r="CX5" s="26">
-        <v>95</v>
-      </c>
-      <c r="CY5" s="26">
-        <v>96</v>
-      </c>
-      <c r="CZ5" s="26">
-        <v>97</v>
-      </c>
-      <c r="DA5" s="26">
-        <v>98</v>
-      </c>
-      <c r="DB5" s="26">
-        <v>99</v>
-      </c>
-      <c r="DC5" s="3">
-        <v>100</v>
-      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
     </row>
-    <row r="6" spans="2:107" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="28">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="28">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28">
-        <v>3</v>
-      </c>
-      <c r="G6" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:107" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28">
-        <v>2</v>
-      </c>
-      <c r="E7" s="28">
-        <v>2</v>
-      </c>
-      <c r="F7" s="28">
-        <v>3</v>
-      </c>
-      <c r="G7" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:107" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1</v>
-      </c>
-      <c r="D8" s="28">
-        <v>15</v>
-      </c>
-      <c r="E8" s="28">
-        <v>2</v>
-      </c>
-      <c r="F8" s="28">
-        <v>8</v>
-      </c>
-      <c r="G8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="28">
-        <v>3</v>
-      </c>
-      <c r="D9" s="28">
-        <v>6</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
-        <v>5</v>
-      </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="28">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28">
-        <v>4</v>
-      </c>
-      <c r="E10" s="28">
-        <v>3</v>
-      </c>
-      <c r="F10" s="28">
-        <v>5</v>
-      </c>
-      <c r="G10" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="28">
-        <v>10</v>
-      </c>
-      <c r="D11" s="28">
-        <v>20</v>
-      </c>
-      <c r="E11" s="28">
-        <v>14</v>
-      </c>
-      <c r="F11" s="28">
-        <v>17</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:107" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="28">
-        <v>12</v>
-      </c>
-      <c r="D12" s="28">
-        <v>5</v>
-      </c>
-      <c r="E12" s="28">
-        <v>12</v>
-      </c>
-      <c r="F12" s="28">
-        <v>4</v>
-      </c>
-      <c r="G12" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:107" ht="57.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="28">
-        <v>18</v>
-      </c>
-      <c r="D13" s="28">
-        <v>20</v>
-      </c>
-      <c r="E13" s="28">
-        <v>17</v>
-      </c>
-      <c r="F13" s="28">
-        <v>10</v>
-      </c>
-      <c r="G13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:107" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="28">
-        <v>15</v>
-      </c>
-      <c r="D14" s="28">
-        <v>5</v>
-      </c>
-      <c r="E14" s="28">
-        <v>10</v>
-      </c>
-      <c r="F14" s="28">
-        <v>6</v>
-      </c>
-      <c r="G14" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:107" ht="54.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="28">
-        <v>19</v>
-      </c>
-      <c r="D15" s="28">
-        <v>2</v>
-      </c>
-      <c r="E15" s="28">
-        <v>18</v>
-      </c>
-      <c r="F15" s="28">
-        <v>1</v>
-      </c>
-      <c r="G15" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:107" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="28">
-        <v>25</v>
-      </c>
-      <c r="D16" s="28">
-        <v>10</v>
-      </c>
-      <c r="E16" s="28">
-        <v>26</v>
-      </c>
-      <c r="F16" s="28">
-        <v>9</v>
-      </c>
-      <c r="G16" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="28">
-        <v>4</v>
-      </c>
-      <c r="D17" s="28">
-        <v>8</v>
-      </c>
-      <c r="E17" s="28">
-        <v>4</v>
-      </c>
-      <c r="F17" s="28">
-        <v>7</v>
-      </c>
-      <c r="G17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="28">
-        <v>4</v>
-      </c>
-      <c r="D18" s="28">
-        <v>6</v>
-      </c>
-      <c r="E18" s="28">
-        <v>5</v>
-      </c>
-      <c r="F18" s="28">
-        <v>4</v>
-      </c>
-      <c r="G18" s="29">
-        <v>1</v>
-      </c>
+    <row r="21" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="T4:AU4"/>
+    <mergeCell ref="H4:S4"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2041,61 +2415,136 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H6:DC18">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H6:Q20">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="32" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="29" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>H$5=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:DC19">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B21:AU21">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:DC5">
+  <conditionalFormatting sqref="H5:BE5">
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>H$5=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO6:AU20 R6:AG20">
+    <cfRule type="expression" dxfId="23" priority="37">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="38">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="39">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="40">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="41">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="42">
+      <formula>#REF!=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="43">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="44">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH6:AN20">
+    <cfRule type="expression" dxfId="15" priority="53">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="54">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="55">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="56">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="57">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="58">
+      <formula>R$5=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="59">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="60">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV6:BE20">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>#REF!=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$5=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="K3 L4"/>
+  <dataValidations count="15">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="I2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="W2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="AE2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AO2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="K3 H4" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
